--- a/results/2018年.xlsx
+++ b/results/2018年.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,52 +429,52 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>總負債</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>流動負債</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
           <t>股價</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>營收</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>營業利益</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>稅後淨利</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>營業現金流</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>投資現金流</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>ROE</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>總負債</t>
+        </is>
+      </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>ROA</t>
+          <t>流動負債</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -553,253 +553,7953 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14208661</v>
+      </c>
+      <c r="D2" t="n">
+        <v>457165</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2692076</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2481304</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-6399581</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8599664</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6569117</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4521441</v>
+      </c>
+      <c r="M2" t="n">
+        <v>36914108</v>
+      </c>
+      <c r="N2" t="n">
+        <v>18870925</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1160377.586206897</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>28314444</v>
+      </c>
+      <c r="R2" t="n">
+        <v>24.4010607724299</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10271261</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2030547</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1894672552184896</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1224854464856634</v>
+      </c>
+      <c r="W2" t="n">
+        <v>18.81085384926667</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.06408839779005523</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.483542061454206</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>571</v>
+      </c>
+      <c r="C3" t="n">
+        <v>59063510</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17578051</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13633771</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36178722</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-6368165</v>
+      </c>
+      <c r="H3" t="n">
+        <v>35.32</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>46666008</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24422441</v>
+      </c>
+      <c r="L3" t="n">
+        <v>30887035</v>
+      </c>
+      <c r="M3" t="n">
+        <v>89822121</v>
+      </c>
+      <c r="N3" t="n">
+        <v>53200515</v>
+      </c>
+      <c r="O3" t="n">
+        <v>31.18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>437260.1347017319</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>43156113</v>
+      </c>
+      <c r="R3" t="n">
+        <v>98.69665577777417</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6534507</v>
+      </c>
+      <c r="T3" t="n">
+        <v>22243567</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2308323870355825</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.3438689117572719</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.654788520069717</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.05460595446584939</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5.785403725184632</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>361</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1476516</v>
+      </c>
+      <c r="D4" t="n">
+        <v>672735</v>
+      </c>
+      <c r="E4" t="n">
+        <v>613106</v>
+      </c>
+      <c r="F4" t="n">
+        <v>635422</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-28264</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>370636</v>
+      </c>
+      <c r="K4" t="n">
+        <v>349772</v>
+      </c>
+      <c r="L4" t="n">
+        <v>491533</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2104177</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1483605</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="P4" t="n">
+        <v>75412.79212792128</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1733541</v>
+      </c>
+      <c r="R4" t="n">
+        <v>22.98735998342864</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1112969</v>
+      </c>
+      <c r="T4" t="n">
+        <v>20864</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.4152383042242685</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2335986944064116</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.550939077051142</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0225207756232687</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15.7042827127709</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3067118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>955536</v>
+      </c>
+      <c r="E5" t="n">
+        <v>880674</v>
+      </c>
+      <c r="F5" t="n">
+        <v>900062</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-156943</v>
+      </c>
+      <c r="H5" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>849213</v>
+      </c>
+      <c r="K5" t="n">
+        <v>737254</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1187995</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4613517</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3096818</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="P5" t="n">
+        <v>70397.60191846523</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3764304</v>
+      </c>
+      <c r="R5" t="n">
+        <v>53.47204872631644</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2247605</v>
+      </c>
+      <c r="T5" t="n">
+        <v>111959</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.2871340457067514</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2575031153022737</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8887294670216507</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.06636604774535809</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.525206243074602</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>28928094</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7154708</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6166269</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7460214</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-3902746</v>
+      </c>
+      <c r="H6" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8213906</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7189330</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6444050</v>
+      </c>
+      <c r="M6" t="n">
+        <v>37653029</v>
+      </c>
+      <c r="N6" t="n">
+        <v>25803146</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1639965.159574468</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>29439123</v>
+      </c>
+      <c r="R6" t="n">
+        <v>17.95106611145248</v>
+      </c>
+      <c r="S6" t="n">
+        <v>17589240</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1024576</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2131584956824324</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1711429377965847</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.1480421003904</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.05775729646697389</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3.626525555407947</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>69238945</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13177505</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8635480</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36089311</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-7430286</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="J7" t="n">
+        <v>56071450</v>
+      </c>
+      <c r="K7" t="n">
+        <v>30153693</v>
+      </c>
+      <c r="L7" t="n">
+        <v>37438555</v>
+      </c>
+      <c r="M7" t="n">
+        <v>103985315</v>
+      </c>
+      <c r="N7" t="n">
+        <v>57260849</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2570083.333333333</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>47913865</v>
+      </c>
+      <c r="R7" t="n">
+        <v>18.64292273272591</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1189399</v>
+      </c>
+      <c r="T7" t="n">
+        <v>25917757</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.1247199823740815</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.3600369436780568</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4.255088501199582</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.02452554744525547</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7.348633149646073</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>40788105</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4709784</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4318119</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5213184</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1915044</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9526670</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9419631</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2990231</v>
+      </c>
+      <c r="M8" t="n">
+        <v>36438540</v>
+      </c>
+      <c r="N8" t="n">
+        <v>30605807</v>
+      </c>
+      <c r="O8" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>197084.390689183</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>26911870</v>
+      </c>
+      <c r="R8" t="n">
+        <v>136.5499819944749</v>
+      </c>
+      <c r="S8" t="n">
+        <v>21079137</v>
+      </c>
+      <c r="T8" t="n">
+        <v>107039</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1058671149346115</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.08206231643748624</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.022740320999859</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.07867145421903052</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.039546222798247</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>879</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2153519</v>
+      </c>
+      <c r="D9" t="n">
+        <v>799888</v>
+      </c>
+      <c r="E9" t="n">
+        <v>685922</v>
+      </c>
+      <c r="F9" t="n">
+        <v>779104</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-7145</v>
+      </c>
+      <c r="H9" t="n">
+        <v>31.13</v>
+      </c>
+      <c r="I9" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="J9" t="n">
+        <v>503735</v>
+      </c>
+      <c r="K9" t="n">
+        <v>424282</v>
+      </c>
+      <c r="L9" t="n">
+        <v>84841</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2832675</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1819316</v>
+      </c>
+      <c r="O9" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>33956.53465346535</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2328940</v>
+      </c>
+      <c r="R9" t="n">
+        <v>68.58591501657622</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1315581</v>
+      </c>
+      <c r="T9" t="n">
+        <v>79453</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.3185121654371287</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.02995084151905884</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.6297569159682356</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.0229806598407281</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12.81604247442873</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>189</v>
+      </c>
+      <c r="C10" t="n">
+        <v>64452906</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3963888</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3315770</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2136756</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1543470</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>25854493</v>
+      </c>
+      <c r="K10" t="n">
+        <v>24961549</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6321655</v>
+      </c>
+      <c r="M10" t="n">
+        <v>48370058</v>
+      </c>
+      <c r="N10" t="n">
+        <v>38974590</v>
+      </c>
+      <c r="O10" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="P10" t="n">
+        <v>191110.6628242075</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>22515565</v>
+      </c>
+      <c r="R10" t="n">
+        <v>117.8142792624338</v>
+      </c>
+      <c r="S10" t="n">
+        <v>13120097</v>
+      </c>
+      <c r="T10" t="n">
+        <v>892944</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.05144484873963635</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1306935583992891</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.522508456343872</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.09179894179894181</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.604219804112187</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18856</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-132186</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-244941</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-5123</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-88343</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-10.51</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-10.09</v>
+      </c>
+      <c r="J11" t="n">
+        <v>169643</v>
+      </c>
+      <c r="K11" t="n">
+        <v>23412</v>
+      </c>
+      <c r="L11" t="n">
+        <v>561012</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2335421</v>
+      </c>
+      <c r="N11" t="n">
+        <v>745176</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>204117.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2165778</v>
+      </c>
+      <c r="R11" t="n">
+        <v>10.61044741386701</v>
+      </c>
+      <c r="S11" t="n">
+        <v>575533</v>
+      </c>
+      <c r="T11" t="n">
+        <v>146231</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-12.9900827322868</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.2402187871051943</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-1.283365863253294</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.03287671232876712</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3.440005739277064</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17310716</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3205342</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3066062</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5479518</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-4377367</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9855218</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3828383</v>
+      </c>
+      <c r="L12" t="n">
+        <v>15568252</v>
+      </c>
+      <c r="M12" t="n">
+        <v>35459603</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11334529</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="P12" t="n">
+        <v>414893.3694181326</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>25604385</v>
+      </c>
+      <c r="R12" t="n">
+        <v>61.71316990654461</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1479311</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6026835</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.1771193057525755</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.4390419148234683</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3.07462292635232</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.02938369781312127</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4.075305163887371</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7654265</v>
+      </c>
+      <c r="D13" t="n">
+        <v>182386</v>
+      </c>
+      <c r="E13" t="n">
+        <v>231505</v>
+      </c>
+      <c r="F13" t="n">
+        <v>113055</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-285580</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3471314</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3471314</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1029504</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5779913</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4314034</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="P13" t="n">
+        <v>79829.31034482759</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2308599</v>
+      </c>
+      <c r="R13" t="n">
+        <v>28.91919008228764</v>
+      </c>
+      <c r="S13" t="n">
+        <v>842720</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.03024522929373362</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.1781175599009881</v>
+      </c>
+      <c r="W13" t="n">
+        <v>19.03278760431174</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.04196816208393633</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.389416847545887</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18725270</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3899569</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4541783</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6125973</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-4770893</v>
+      </c>
+      <c r="H14" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11736431</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8288423</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16187525</v>
+      </c>
+      <c r="M14" t="n">
+        <v>39609101</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13136854</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="P14" t="n">
+        <v>653493.9568345323</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>27872670</v>
+      </c>
+      <c r="R14" t="n">
+        <v>42.65176396582576</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1400423</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3448008</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.2425483317463513</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.4086819592295215</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3.009673889601646</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.1110223642172524</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.467700141315551</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21235086</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1285298</v>
+      </c>
+      <c r="E15" t="n">
+        <v>995060</v>
+      </c>
+      <c r="F15" t="n">
+        <v>995382</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1650683</v>
+      </c>
+      <c r="H15" t="n">
+        <v>14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8533479</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6384425</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7617265</v>
+      </c>
+      <c r="M15" t="n">
+        <v>15790164</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5837148</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="P15" t="n">
+        <v>280298.5915492958</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>7256685</v>
+      </c>
+      <c r="R15" t="n">
+        <v>25.889124022672</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-2696331</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2149054</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.04685924040995172</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.4824056925564548</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6.639299991130462</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.05926544240400668</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.313712891465293</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>38503121</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3075082</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4280995</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6277245</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-5096313</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="J16" t="n">
+        <v>22514200</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7488055</v>
+      </c>
+      <c r="L16" t="n">
+        <v>19501534</v>
+      </c>
+      <c r="M16" t="n">
+        <v>89704954</v>
+      </c>
+      <c r="N16" t="n">
+        <v>21622587</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2692449.685534591</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>67190754</v>
+      </c>
+      <c r="R16" t="n">
+        <v>24.95524962304324</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-891613</v>
+      </c>
+      <c r="T16" t="n">
+        <v>15026145</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.1111856620661998</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.2173963993114583</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7.321495817022115</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.1169117647058824</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.5449755143880427</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>799954</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-127724</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-53366</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-66664</v>
+      </c>
+      <c r="G17" t="n">
+        <v>174139</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>625181</v>
+      </c>
+      <c r="K17" t="n">
+        <v>611036</v>
+      </c>
+      <c r="L17" t="n">
+        <v>344305</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1331668</v>
+      </c>
+      <c r="N17" t="n">
+        <v>809897</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="P17" t="n">
+        <v>60643.18181818182</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>706487</v>
+      </c>
+      <c r="R17" t="n">
+        <v>11.64989993628902</v>
+      </c>
+      <c r="S17" t="n">
+        <v>184716</v>
+      </c>
+      <c r="T17" t="n">
+        <v>14145</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.06671133590181436</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.258551681049631</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-4.894780933888698</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.0704</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.072970589306346</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>182</v>
+      </c>
+      <c r="C18" t="n">
+        <v>71720973</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1772005</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1694459</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4790215</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1908399</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="J18" t="n">
+        <v>26983296</v>
+      </c>
+      <c r="K18" t="n">
+        <v>24262625</v>
+      </c>
+      <c r="L18" t="n">
+        <v>9932136</v>
+      </c>
+      <c r="M18" t="n">
+        <v>32756777</v>
+      </c>
+      <c r="N18" t="n">
+        <v>18420141</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="P18" t="n">
+        <v>234365.0069156293</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5773481</v>
+      </c>
+      <c r="R18" t="n">
+        <v>24.63456928140486</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-8563155</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2720671</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.02362571126858527</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.303208584898325</v>
+      </c>
+      <c r="W18" t="n">
+        <v>15.22755071232869</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.03972527472527473</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7.387991968561867</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>36</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1634740</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-23609</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20344</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-5422</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-106035</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2414765</v>
+      </c>
+      <c r="K19" t="n">
+        <v>713840</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1150639</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3835756</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1435190</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="P19" t="n">
+        <v>75348.14814814815</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1420991</v>
+      </c>
+      <c r="R19" t="n">
+        <v>18.8590036374361</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-979575</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1700925</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.01244479244405838</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.299977110118579</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-102.2815451734508</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.007500000000000001</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.908902542896706</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8443804</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1837931</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1548542</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3615223</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-4433952</v>
+      </c>
+      <c r="H20" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6660720</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3828372</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10853806</v>
+      </c>
+      <c r="M20" t="n">
+        <v>17663420</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5484901</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="P20" t="n">
+        <v>467837.4622356495</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>11002700</v>
+      </c>
+      <c r="R20" t="n">
+        <v>23.51821067817341</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-1175819</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2832348</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.183393882662364</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.6144793024227472</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3.6240315876929</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.09323943661971831</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.509468576746213</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>16710217</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1590944</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1188606</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2388126</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-992434</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9301419</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5332664</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2373857</v>
+      </c>
+      <c r="M21" t="n">
+        <v>28911220</v>
+      </c>
+      <c r="N21" t="n">
+        <v>24571800</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P21" t="n">
+        <v>724759.756097561</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>19609801</v>
+      </c>
+      <c r="R21" t="n">
+        <v>27.0569672709039</v>
+      </c>
+      <c r="S21" t="n">
+        <v>15270381</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3968755</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.07113049459501333</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.08210850320394643</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5.846477940141199</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.05920577617328519</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.023765883391802</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4900729</v>
+      </c>
+      <c r="D22" t="n">
+        <v>124532</v>
+      </c>
+      <c r="E22" t="n">
+        <v>105979</v>
+      </c>
+      <c r="F22" t="n">
+        <v>131331</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-156521</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1230135</v>
+      </c>
+      <c r="K22" t="n">
+        <v>926252</v>
+      </c>
+      <c r="L22" t="n">
+        <v>385621</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2305788</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1836087</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P22" t="n">
+        <v>35208.97009966778</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1075653</v>
+      </c>
+      <c r="R22" t="n">
+        <v>30.55053859726927</v>
+      </c>
+      <c r="S22" t="n">
+        <v>605952</v>
+      </c>
+      <c r="T22" t="n">
+        <v>303883</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.02162515005420622</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.1672404401445406</v>
+      </c>
+      <c r="W22" t="n">
+        <v>9.878063469630296</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.03393461104847801</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.903385801778577</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4714446</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1304492</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1351951</v>
+      </c>
+      <c r="F23" t="n">
+        <v>834284</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-307404</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-36.04</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-17.83</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3396714</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1253376</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3940619</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6494748</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2300458</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="P23" t="n">
+        <v>270932.0641282565</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3098034</v>
+      </c>
+      <c r="R23" t="n">
+        <v>11.43472630295033</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-1096256</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2143338</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.2867677347455035</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.6067393222954917</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-2.603859586720348</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.07118402282453638</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>6.130448437748191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>62</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2125538</v>
+      </c>
+      <c r="D24" t="n">
+        <v>275678</v>
+      </c>
+      <c r="E24" t="n">
+        <v>234358</v>
+      </c>
+      <c r="F24" t="n">
+        <v>244635</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-453228</v>
+      </c>
+      <c r="H24" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="J24" t="n">
+        <v>897635</v>
+      </c>
+      <c r="K24" t="n">
+        <v>839021</v>
+      </c>
+      <c r="L24" t="n">
+        <v>740640</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3491871</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2250991</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>99304.2372881356</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2594236</v>
+      </c>
+      <c r="R24" t="n">
+        <v>26.12412189897507</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1353356</v>
+      </c>
+      <c r="T24" t="n">
+        <v>58614</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.1102582028644042</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.2121040553903624</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3.25609950739631</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.03806451612903226</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.373285511366124</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9784851</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1093951</v>
+      </c>
+      <c r="E25" t="n">
+        <v>851909</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1454944</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-830765</v>
+      </c>
+      <c r="H25" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4616816</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2757603</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2441270</v>
+      </c>
+      <c r="M25" t="n">
+        <v>9788179</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5790664</v>
+      </c>
+      <c r="O25" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>36097.83898305085</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5171363</v>
+      </c>
+      <c r="R25" t="n">
+        <v>143.2596284344924</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1173848</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1859213</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.08706407486429789</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.2494100281574336</v>
+      </c>
+      <c r="W25" t="n">
+        <v>4.220313341273969</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.05952080706179067</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.767702278254236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>369654</v>
+      </c>
+      <c r="D26" t="n">
+        <v>45838</v>
+      </c>
+      <c r="E26" t="n">
+        <v>50594</v>
+      </c>
+      <c r="F26" t="n">
+        <v>118481</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-60991</v>
+      </c>
+      <c r="H26" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100128</v>
+      </c>
+      <c r="K26" t="n">
+        <v>82869</v>
+      </c>
+      <c r="L26" t="n">
+        <v>156101</v>
+      </c>
+      <c r="M26" t="n">
+        <v>557165</v>
+      </c>
+      <c r="N26" t="n">
+        <v>297629</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P26" t="n">
+        <v>67458.66666666667</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>457037</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6.775067201644463</v>
+      </c>
+      <c r="S26" t="n">
+        <v>197501</v>
+      </c>
+      <c r="T26" t="n">
+        <v>17259</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1368685311128785</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.2801701470838979</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.184388498625594</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.0199468085106383</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>5.549760449737477</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1836846</v>
+      </c>
+      <c r="D27" t="n">
+        <v>327492</v>
+      </c>
+      <c r="E27" t="n">
+        <v>296542</v>
+      </c>
+      <c r="F27" t="n">
+        <v>586621</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-410470</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="J27" t="n">
+        <v>378338</v>
+      </c>
+      <c r="K27" t="n">
+        <v>369106</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1119511</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3230900</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2060627</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="P27" t="n">
+        <v>140541.2322274882</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2852562</v>
+      </c>
+      <c r="R27" t="n">
+        <v>20.29697587525544</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1682289</v>
+      </c>
+      <c r="T27" t="n">
+        <v>9232</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.1614408611282601</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.346501284471819</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.155258754412322</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.03135215453194651</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.315764890968172</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>59</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5386356</v>
+      </c>
+      <c r="D28" t="n">
+        <v>323282</v>
+      </c>
+      <c r="E28" t="n">
+        <v>337628</v>
+      </c>
+      <c r="F28" t="n">
+        <v>806427</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-214738</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4073267</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3059027</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3030643</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8190198</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4889193</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="P28" t="n">
+        <v>80579.47494033413</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4116931</v>
+      </c>
+      <c r="R28" t="n">
+        <v>51.0915590235407</v>
+      </c>
+      <c r="S28" t="n">
+        <v>815926</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1014240</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.06268208042691571</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.3700329344907168</v>
+      </c>
+      <c r="W28" t="n">
+        <v>12.59973335972928</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.07101694915254238</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.154789580267368</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>40</v>
+      </c>
+      <c r="C29" t="n">
+        <v>22758688</v>
+      </c>
+      <c r="D29" t="n">
+        <v>756499</v>
+      </c>
+      <c r="E29" t="n">
+        <v>735477</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1077709</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-730356</v>
+      </c>
+      <c r="H29" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5212244</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5119178</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4494293</v>
+      </c>
+      <c r="M29" t="n">
+        <v>10020258</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1279421</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P29" t="n">
+        <v>309023.949579832</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4808014</v>
+      </c>
+      <c r="R29" t="n">
+        <v>15.55870995286052</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-3932823</v>
+      </c>
+      <c r="T29" t="n">
+        <v>93066</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.03231631805840477</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.4485206867926954</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6.889954910713696</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.0595</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.57090723595923</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>31457377</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-718380</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-229844</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3011438</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-744838</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2.71</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="J30" t="n">
+        <v>14799195</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11876385</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5580248</v>
+      </c>
+      <c r="M30" t="n">
+        <v>22308705</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9104985</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="P30" t="n">
+        <v>280297.5609756098</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>7509510</v>
+      </c>
+      <c r="R30" t="n">
+        <v>26.79120707958441</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-5694210</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2922810</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.007306521456000607</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.2501376928871488</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-20.60078927587071</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-0.01231231231231231</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2.485890232648416</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>60615</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-138099</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-50378</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-81891</v>
+      </c>
+      <c r="G31" t="n">
+        <v>267229</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-5.13</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-4.57</v>
+      </c>
+      <c r="J31" t="n">
+        <v>121391</v>
+      </c>
+      <c r="K31" t="n">
+        <v>121391</v>
+      </c>
+      <c r="L31" t="n">
+        <v>58673</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1394533</v>
+      </c>
+      <c r="N31" t="n">
+        <v>960386</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="P31" t="n">
+        <v>98780.39215686274</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1273142</v>
+      </c>
+      <c r="R31" t="n">
+        <v>12.88861050458534</v>
+      </c>
+      <c r="S31" t="n">
+        <v>838995</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.8311144106244329</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.04207358305611986</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.879014330299278</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3.297485014763998</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>13012326</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-3417597</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-3100084</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-664770</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-520766</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-50.14</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-13.64</v>
+      </c>
+      <c r="J32" t="n">
+        <v>16840877</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8783614</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10581323</v>
+      </c>
+      <c r="M32" t="n">
+        <v>22826431</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10416166</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-8.869999999999999</v>
+      </c>
+      <c r="P32" t="n">
+        <v>349502.1420518602</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5985554</v>
+      </c>
+      <c r="R32" t="n">
+        <v>17.12594367765519</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-6424711</v>
+      </c>
+      <c r="T32" t="n">
+        <v>8057263</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-0.2382421098272515</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.4635557350161311</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-4.927695395331866</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-0.4693121693121693</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.103588821482549</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>161</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7866250</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1109255</v>
+      </c>
+      <c r="E33" t="n">
+        <v>850450</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1348211</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-436923</v>
+      </c>
+      <c r="H33" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1253605</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1144302</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1379804</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5170057</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3486281</v>
+      </c>
+      <c r="O33" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="P33" t="n">
+        <v>78238.27046918124</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3916452</v>
+      </c>
+      <c r="R33" t="n">
+        <v>50.05800839555529</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2232676</v>
+      </c>
+      <c r="T33" t="n">
+        <v>109303</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.1081137772127761</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.2668837113401265</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.130132386151065</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.06751552795031056</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3.216268588390252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5099949</v>
+      </c>
+      <c r="D34" t="n">
+        <v>102716</v>
+      </c>
+      <c r="E34" t="n">
+        <v>126546</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-432397</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-619345</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2944602</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2498371</v>
+      </c>
+      <c r="L34" t="n">
+        <v>789142</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4501192</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3573119</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="P34" t="n">
+        <v>51863.11475409836</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1556590</v>
+      </c>
+      <c r="R34" t="n">
+        <v>30.01343068923554</v>
+      </c>
+      <c r="S34" t="n">
+        <v>628517</v>
+      </c>
+      <c r="T34" t="n">
+        <v>446231</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.02481318930836367</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.1753184489797369</v>
+      </c>
+      <c r="W34" t="n">
+        <v>28.66741306125628</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.06379084967320262</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.274429451136306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31350738</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-99572</v>
+      </c>
+      <c r="E35" t="n">
+        <v>725006</v>
+      </c>
+      <c r="F35" t="n">
+        <v>387147</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3139816</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J35" t="n">
+        <v>23295771</v>
+      </c>
+      <c r="K35" t="n">
+        <v>13825874</v>
+      </c>
+      <c r="L35" t="n">
+        <v>10883846</v>
+      </c>
+      <c r="M35" t="n">
+        <v>37396928</v>
+      </c>
+      <c r="N35" t="n">
+        <v>18112487</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P35" t="n">
+        <v>575401.5873015873</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>14101157</v>
+      </c>
+      <c r="R35" t="n">
+        <v>24.50663555887813</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-5183284</v>
+      </c>
+      <c r="T35" t="n">
+        <v>9469897</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.02312564380462112</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.2910358305366687</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-233.9590547543486</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.05650224215246637</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.9099576294927714</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
+        <v>761087</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34061</v>
+      </c>
+      <c r="E36" t="n">
+        <v>102668</v>
+      </c>
+      <c r="F36" t="n">
+        <v>30270</v>
+      </c>
+      <c r="G36" t="n">
+        <v>237839</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J36" t="n">
+        <v>230231</v>
+      </c>
+      <c r="K36" t="n">
+        <v>31174</v>
+      </c>
+      <c r="L36" t="n">
+        <v>355569</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2620924</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1260617</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P36" t="n">
+        <v>160418.75</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2390693</v>
+      </c>
+      <c r="R36" t="n">
+        <v>14.9028277554837</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1030386</v>
+      </c>
+      <c r="T36" t="n">
+        <v>199057</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.1348965361384441</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.1356655133838295</v>
+      </c>
+      <c r="W36" t="n">
+        <v>6.759372889815332</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.6710135931296908</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>632562</v>
+      </c>
+      <c r="D37" t="n">
+        <v>60091</v>
+      </c>
+      <c r="E37" t="n">
+        <v>53955</v>
+      </c>
+      <c r="F37" t="n">
+        <v>72962</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-22166</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="J37" t="n">
+        <v>251296</v>
+      </c>
+      <c r="K37" t="n">
+        <v>132487</v>
+      </c>
+      <c r="L37" t="n">
+        <v>191286</v>
+      </c>
+      <c r="M37" t="n">
+        <v>708891</v>
+      </c>
+      <c r="N37" t="n">
+        <v>507429</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="P37" t="n">
+        <v>27113.06532663316</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>457595</v>
+      </c>
+      <c r="R37" t="n">
+        <v>16.87728755444352</v>
+      </c>
+      <c r="S37" t="n">
+        <v>256133</v>
+      </c>
+      <c r="T37" t="n">
+        <v>118809</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.08529598679655116</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.2698383813590524</v>
+      </c>
+      <c r="W37" t="n">
+        <v>4.181924081809256</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.06933797909407666</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.700510221646591</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="C38" t="n">
+        <v>400665057</v>
+      </c>
+      <c r="D38" t="n">
+        <v>33579011</v>
+      </c>
+      <c r="E38" t="n">
+        <v>27886609</v>
+      </c>
+      <c r="F38" t="n">
+        <v>65104198</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-34138546</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="J38" t="n">
+        <v>331728878</v>
+      </c>
+      <c r="K38" t="n">
+        <v>155338705</v>
+      </c>
+      <c r="L38" t="n">
+        <v>398733684</v>
+      </c>
+      <c r="M38" t="n">
+        <v>674526596</v>
+      </c>
+      <c r="N38" t="n">
+        <v>174307744</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P38" t="n">
+        <v>17649752.53164557</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>342797718</v>
+      </c>
+      <c r="R38" t="n">
+        <v>19.4222393421875</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-157421134</v>
+      </c>
+      <c r="T38" t="n">
+        <v>176390173</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.06960080124980801</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.5911311523734195</v>
+      </c>
+      <c r="W38" t="n">
+        <v>9.879054448625661</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.06652631578947368</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.222825009081835</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8741762</v>
+      </c>
+      <c r="D39" t="n">
+        <v>140202</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10865</v>
+      </c>
+      <c r="F39" t="n">
+        <v>153589</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-2403714</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J39" t="n">
+        <v>14417520</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3899783</v>
+      </c>
+      <c r="L39" t="n">
+        <v>15652513</v>
+      </c>
+      <c r="M39" t="n">
+        <v>20329394</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3257389</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P39" t="n">
+        <v>362166.6666666667</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5911874</v>
+      </c>
+      <c r="R39" t="n">
+        <v>16.32362816382881</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-11160131</v>
+      </c>
+      <c r="T39" t="n">
+        <v>10517737</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.001242884443662502</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.7699448886671192</v>
+      </c>
+      <c r="W39" t="n">
+        <v>102.8339110711687</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.005928853754940712</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.3099801067027703</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3108695</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-12073</v>
+      </c>
+      <c r="E40" t="n">
+        <v>85258</v>
+      </c>
+      <c r="F40" t="n">
+        <v>555350</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-31611</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1525700</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1242361</v>
+      </c>
+      <c r="L40" t="n">
+        <v>863399</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5151757</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2071640</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="P40" t="n">
+        <v>355241.6666666667</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3626057</v>
+      </c>
+      <c r="R40" t="n">
+        <v>10.20729644138966</v>
+      </c>
+      <c r="S40" t="n">
+        <v>545940</v>
+      </c>
+      <c r="T40" t="n">
+        <v>283339</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.0274256561032845</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.1675931143491434</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-126.3728982026009</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.02181818181818182</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.077660481711494</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1703688</v>
+      </c>
+      <c r="D41" t="n">
+        <v>202081</v>
+      </c>
+      <c r="E41" t="n">
+        <v>167570</v>
+      </c>
+      <c r="F41" t="n">
+        <v>171858</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-57729</v>
+      </c>
+      <c r="H41" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="J41" t="n">
+        <v>504447</v>
+      </c>
+      <c r="K41" t="n">
+        <v>451123</v>
+      </c>
+      <c r="L41" t="n">
+        <v>761985</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1547187</v>
+      </c>
+      <c r="N41" t="n">
+        <v>701925</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="P41" t="n">
+        <v>45659.40054495913</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1042740</v>
+      </c>
+      <c r="R41" t="n">
+        <v>22.83735632869845</v>
+      </c>
+      <c r="S41" t="n">
+        <v>197478</v>
+      </c>
+      <c r="T41" t="n">
+        <v>53324</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.09835721094472696</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.4924970284781348</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.496261400131631</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.06273504273504274</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.561592469724101</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39.35</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2621467</v>
+      </c>
+      <c r="D42" t="n">
+        <v>459745</v>
+      </c>
+      <c r="E42" t="n">
+        <v>357376</v>
+      </c>
+      <c r="F42" t="n">
+        <v>838940</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-668259</v>
+      </c>
+      <c r="H42" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5392067</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2753620</v>
+      </c>
+      <c r="L42" t="n">
+        <v>22643</v>
+      </c>
+      <c r="M42" t="n">
+        <v>8011893</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5276201</v>
+      </c>
+      <c r="O42" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="P42" t="n">
+        <v>79771.42857142857</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2619826</v>
+      </c>
+      <c r="R42" t="n">
+        <v>32.84165830945559</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-115866</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2638447</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.1363267208780427</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.002826173539761452</v>
+      </c>
+      <c r="W42" t="n">
+        <v>11.72838638810645</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.1138500635324015</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.198173357423628</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="C43" t="n">
+        <v>876522</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-31489</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3441</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-51659</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-124221</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J43" t="n">
+        <v>371202</v>
+      </c>
+      <c r="K43" t="n">
+        <v>310794</v>
+      </c>
+      <c r="L43" t="n">
+        <v>223212</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1175839</v>
+      </c>
+      <c r="N43" t="n">
+        <v>778303</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P43" t="n">
+        <v>57350</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>804637</v>
+      </c>
+      <c r="R43" t="n">
+        <v>14.0302877070619</v>
+      </c>
+      <c r="S43" t="n">
+        <v>407101</v>
+      </c>
+      <c r="T43" t="n">
+        <v>60408</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.003925742879243191</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.1898321113689884</v>
+      </c>
+      <c r="W43" t="n">
+        <v>-11.788307027851</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.003582089552238806</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.193845796303178</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1676157</v>
+      </c>
+      <c r="D44" t="n">
+        <v>129300</v>
+      </c>
+      <c r="E44" t="n">
+        <v>102145</v>
+      </c>
+      <c r="F44" t="n">
+        <v>49569</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-47740</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="J44" t="n">
+        <v>339762</v>
+      </c>
+      <c r="K44" t="n">
+        <v>320913</v>
+      </c>
+      <c r="L44" t="n">
+        <v>238009</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1773813</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1464172</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P44" t="n">
+        <v>79182.17054263566</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1434051</v>
+      </c>
+      <c r="R44" t="n">
+        <v>18.11078163395173</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1124410</v>
+      </c>
+      <c r="T44" t="n">
+        <v>18849</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.06093999547775059</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.1341793075143772</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.627703016241299</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.0618705035971223</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.151247937356449</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1140341</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15783</v>
+      </c>
+      <c r="E45" t="n">
+        <v>29500</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-61807</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-18135</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1010645</v>
+      </c>
+      <c r="K45" t="n">
+        <v>675411</v>
+      </c>
+      <c r="L45" t="n">
+        <v>896675</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1856764</v>
+      </c>
+      <c r="N45" t="n">
+        <v>940724</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P45" t="n">
+        <v>21071.42857142857</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>846119</v>
+      </c>
+      <c r="R45" t="n">
+        <v>40.15479999999999</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-69921</v>
+      </c>
+      <c r="T45" t="n">
+        <v>335234</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.02586945483850883</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.482923516397345</v>
+      </c>
+      <c r="W45" t="n">
+        <v>64.03377051257682</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.04545454545454545</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.7670315877553868</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>64</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1148094</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-254754</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-116005</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-19577</v>
+      </c>
+      <c r="G46" t="n">
+        <v>84884</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-7.47</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1479647</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1423082</v>
+      </c>
+      <c r="L46" t="n">
+        <v>473573</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3119071</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1719008</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="P46" t="n">
+        <v>120838.5416666667</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1639424</v>
+      </c>
+      <c r="R46" t="n">
+        <v>13.56706210939184</v>
+      </c>
+      <c r="S46" t="n">
+        <v>239361</v>
+      </c>
+      <c r="T46" t="n">
+        <v>56565</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-0.1010413781449951</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.151831426729305</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-5.808140402113412</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>4.71730721684364</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2453364</v>
+      </c>
+      <c r="D47" t="n">
+        <v>168154</v>
+      </c>
+      <c r="E47" t="n">
+        <v>102009</v>
+      </c>
+      <c r="F47" t="n">
+        <v>52887</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-260897</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1665736</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1511295</v>
+      </c>
+      <c r="L47" t="n">
+        <v>884511</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3101405</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1876446</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P47" t="n">
+        <v>75006.61764705883</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1435669</v>
+      </c>
+      <c r="R47" t="n">
+        <v>19.14056445999863</v>
+      </c>
+      <c r="S47" t="n">
+        <v>210710</v>
+      </c>
+      <c r="T47" t="n">
+        <v>154441</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.04157923569433643</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.2851968704506506</v>
+      </c>
+      <c r="W47" t="n">
+        <v>9.906014724597691</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.03550913838120105</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.000985920767498</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>19436763</v>
+      </c>
+      <c r="D48" t="n">
+        <v>513149</v>
+      </c>
+      <c r="E48" t="n">
+        <v>869091</v>
+      </c>
+      <c r="F48" t="n">
+        <v>555117</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3044555</v>
+      </c>
+      <c r="H48" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15042255</v>
+      </c>
+      <c r="K48" t="n">
+        <v>11746178</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9934574</v>
+      </c>
+      <c r="M48" t="n">
+        <v>21242697</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8996892</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="P48" t="n">
+        <v>447985.0515463917</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>6200442</v>
+      </c>
+      <c r="R48" t="n">
+        <v>13.84073414636672</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-6045363</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3296077</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.04471377255564622</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.4676700891605242</v>
+      </c>
+      <c r="W48" t="n">
+        <v>29.31362041044609</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.08151260504201681</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.71956196458319</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4321819</v>
+      </c>
+      <c r="D49" t="n">
+        <v>67034</v>
+      </c>
+      <c r="E49" t="n">
+        <v>62687</v>
+      </c>
+      <c r="F49" t="n">
+        <v>430382</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-204490</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6312858</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3379906</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3102064</v>
+      </c>
+      <c r="M49" t="n">
+        <v>12584818</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2011644</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>626870</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>6271960</v>
+      </c>
+      <c r="R49" t="n">
+        <v>10.00520044028267</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-4301214</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2932952</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.01450477218041755</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.2464925595268839</v>
+      </c>
+      <c r="W49" t="n">
+        <v>94.17397141748964</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.012453300124533</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.8025826217003934</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>74</v>
+      </c>
+      <c r="C50" t="n">
+        <v>431445520</v>
+      </c>
+      <c r="D50" t="n">
+        <v>26986409</v>
+      </c>
+      <c r="E50" t="n">
+        <v>26945173</v>
+      </c>
+      <c r="F50" t="n">
+        <v>43096879</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11276729</v>
+      </c>
+      <c r="H50" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>236849252</v>
+      </c>
+      <c r="K50" t="n">
+        <v>146567709</v>
+      </c>
+      <c r="L50" t="n">
+        <v>136968484</v>
+      </c>
+      <c r="M50" t="n">
+        <v>407150086</v>
+      </c>
+      <c r="N50" t="n">
+        <v>171566867</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="P50" t="n">
+        <v>8776929.315960912</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>170300834</v>
+      </c>
+      <c r="R50" t="n">
+        <v>19.40323635628541</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-65282385</v>
+      </c>
+      <c r="T50" t="n">
+        <v>90281543</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.06245324554534719</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.3364078474000372</v>
+      </c>
+      <c r="W50" t="n">
+        <v>8.776612405155499</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.04148648648648649</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3.813796762622475</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9358661</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-1031759</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1234502</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-295219</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1310461</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-8.890000000000001</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-4.47</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10487311</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5776153</v>
+      </c>
+      <c r="L51" t="n">
+        <v>12509656</v>
+      </c>
+      <c r="M51" t="n">
+        <v>23694775</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8486808</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1222279.207920792</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>13207464</v>
+      </c>
+      <c r="R51" t="n">
+        <v>10.80560310149356</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-2000503</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4711158</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.1319101097902788</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.527949980533683</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-10.16449674778703</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.06196319018404908</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.508476652982655</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8707381</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-617912</v>
+      </c>
+      <c r="E52" t="n">
+        <v>423399</v>
+      </c>
+      <c r="F52" t="n">
+        <v>273184</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3915191</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5866618</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3464537</v>
+      </c>
+      <c r="L52" t="n">
+        <v>8900335</v>
+      </c>
+      <c r="M52" t="n">
+        <v>25360851</v>
+      </c>
+      <c r="N52" t="n">
+        <v>13262729</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1764162.5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>19494233</v>
+      </c>
+      <c r="R52" t="n">
+        <v>11.0501345539314</v>
+      </c>
+      <c r="S52" t="n">
+        <v>7396111</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2402081</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.04862529846804682</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.3509478053398129</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-9.494261318763836</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.02436548223350254</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.8913918606082116</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C53" t="n">
+        <v>279376115</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4835296</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2222762</v>
+      </c>
+      <c r="F53" t="n">
+        <v>52579619</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-99036816</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J53" t="n">
+        <v>156928899</v>
+      </c>
+      <c r="K53" t="n">
+        <v>120274676</v>
+      </c>
+      <c r="L53" t="n">
+        <v>206617960</v>
+      </c>
+      <c r="M53" t="n">
+        <v>411919604</v>
+      </c>
+      <c r="N53" t="n">
+        <v>169734116</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P53" t="n">
+        <v>10103463.63636364</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>254990705</v>
+      </c>
+      <c r="R53" t="n">
+        <v>25.23794949706716</v>
+      </c>
+      <c r="S53" t="n">
+        <v>12805217</v>
+      </c>
+      <c r="T53" t="n">
+        <v>36654223</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.00795616332484257</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.5015977826585791</v>
+      </c>
+      <c r="W53" t="n">
+        <v>32.45486915382223</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.01872340425531915</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.4655687262297374</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>84721804</v>
+      </c>
+      <c r="D54" t="n">
+        <v>39355470</v>
+      </c>
+      <c r="E54" t="n">
+        <v>39360850</v>
+      </c>
+      <c r="F54" t="n">
+        <v>48244002</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-12513287</v>
+      </c>
+      <c r="H54" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="J54" t="n">
+        <v>17678515</v>
+      </c>
+      <c r="K54" t="n">
+        <v>16763342</v>
+      </c>
+      <c r="L54" t="n">
+        <v>95358992</v>
+      </c>
+      <c r="M54" t="n">
+        <v>182585813</v>
+      </c>
+      <c r="N54" t="n">
+        <v>82386911</v>
+      </c>
+      <c r="O54" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3075066.40625</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>164907298</v>
+      </c>
+      <c r="R54" t="n">
+        <v>53.62723148509242</v>
+      </c>
+      <c r="S54" t="n">
+        <v>64708396</v>
+      </c>
+      <c r="T54" t="n">
+        <v>915173</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.4645893753631592</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.522269449269862</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.4492009624075128</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.1312820512820513</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.818106161738063</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2453837</v>
+      </c>
+      <c r="D55" t="n">
+        <v>155074</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-104133</v>
+      </c>
+      <c r="F55" t="n">
+        <v>218207</v>
+      </c>
+      <c r="G55" t="n">
+        <v>43840</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="J55" t="n">
+        <v>7219465</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1912806</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2457303</v>
+      </c>
+      <c r="M55" t="n">
+        <v>8628786</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2140163</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="P55" t="n">
+        <v>325415.625</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1409321</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4.330833837496279</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-5079302</v>
+      </c>
+      <c r="T55" t="n">
+        <v>5306659</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-0.04243680407459827</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.2847796897500993</v>
+      </c>
+      <c r="W55" t="n">
+        <v>46.55496730593136</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-0.07710843373493975</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.9582450298760894</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5293803022</v>
+      </c>
+      <c r="D56" t="n">
+        <v>136146875</v>
+      </c>
+      <c r="E56" t="n">
+        <v>129835425</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-40156222</v>
+      </c>
+      <c r="G56" t="n">
+        <v>71431456</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2048921539</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1809861556</v>
+      </c>
+      <c r="L56" t="n">
+        <v>277860012</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3381355427</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2706482746</v>
+      </c>
+      <c r="O56" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="P56" t="n">
+        <v>16168795.14321295</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1332433888</v>
+      </c>
+      <c r="R56" t="n">
+        <v>82.40774134362789</v>
+      </c>
+      <c r="S56" t="n">
+        <v>657561207</v>
+      </c>
+      <c r="T56" t="n">
+        <v>239059983</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.02452592672232601</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.08217415116473646</v>
+      </c>
+      <c r="W56" t="n">
+        <v>15.04934681020038</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.09272517321016166</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.050872146087477</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="C57" t="n">
+        <v>22235076</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1087780</v>
+      </c>
+      <c r="E57" t="n">
+        <v>832000</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3199104</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1350456</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="J57" t="n">
+        <v>15369407</v>
+      </c>
+      <c r="K57" t="n">
+        <v>12939245</v>
+      </c>
+      <c r="L57" t="n">
+        <v>885884</v>
+      </c>
+      <c r="M57" t="n">
+        <v>26996608</v>
+      </c>
+      <c r="N57" t="n">
+        <v>22441629</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="P57" t="n">
+        <v>345228.2157676349</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>11627201</v>
+      </c>
+      <c r="R57" t="n">
+        <v>33.67975289663462</v>
+      </c>
+      <c r="S57" t="n">
+        <v>7072222</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2430162</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.03741835647424817</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.032814641009715</v>
+      </c>
+      <c r="W57" t="n">
+        <v>14.12915019581165</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.06915351506456241</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.034746309064587</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>39242551</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4187329</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1650495</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4486949</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-2518105</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J58" t="n">
+        <v>66055951</v>
+      </c>
+      <c r="K58" t="n">
+        <v>46630770</v>
+      </c>
+      <c r="L58" t="n">
+        <v>43532941</v>
+      </c>
+      <c r="M58" t="n">
+        <v>103746341</v>
+      </c>
+      <c r="N58" t="n">
+        <v>25052856</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1755845.744680851</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>37690390</v>
+      </c>
+      <c r="R58" t="n">
+        <v>21.46566127131557</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-41003095</v>
+      </c>
+      <c r="T58" t="n">
+        <v>19425181</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.04205881009111768</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.4196094106104427</v>
+      </c>
+      <c r="W58" t="n">
+        <v>15.77519965591431</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.04747474747474747</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.9224034493853965</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>10498328</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4853432</v>
+      </c>
+      <c r="E59" t="n">
+        <v>15416906</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-3216877</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8157597</v>
+      </c>
+      <c r="H59" t="n">
+        <v>41.58</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="J59" t="n">
+        <v>29690584</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4211098</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1242634</v>
+      </c>
+      <c r="M59" t="n">
+        <v>61848376</v>
+      </c>
+      <c r="N59" t="n">
+        <v>18300001</v>
+      </c>
+      <c r="O59" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1137779.040590406</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>32157792</v>
+      </c>
+      <c r="R59" t="n">
+        <v>28.26365300534361</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-11390583</v>
+      </c>
+      <c r="T59" t="n">
+        <v>25479486</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.468510604736297</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.02009161889715584</v>
+      </c>
+      <c r="W59" t="n">
+        <v>6.117441019056206</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.2171474358974359</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.207782553380572</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>18</v>
+      </c>
+      <c r="C60" t="n">
+        <v>671611</v>
+      </c>
+      <c r="D60" t="n">
+        <v>19488</v>
+      </c>
+      <c r="E60" t="n">
+        <v>115472</v>
+      </c>
+      <c r="F60" t="n">
+        <v>17454</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-3706</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>159777</v>
+      </c>
+      <c r="K60" t="n">
+        <v>34352</v>
+      </c>
+      <c r="L60" t="n">
+        <v>363799</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2474323</v>
+      </c>
+      <c r="N60" t="n">
+        <v>964029</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="P60" t="n">
+        <v>151936.8421052631</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2314546</v>
+      </c>
+      <c r="R60" t="n">
+        <v>15.23360606900374</v>
+      </c>
+      <c r="S60" t="n">
+        <v>804252</v>
+      </c>
+      <c r="T60" t="n">
+        <v>125425</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.1719328599442237</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.1470297127739588</v>
+      </c>
+      <c r="W60" t="n">
+        <v>8.198737684729064</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.04222222222222222</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.18159810083478</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="C61" t="n">
+        <v>43300155</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1813005</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1492323</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2883250</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-2190877</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="J61" t="n">
+        <v>32735110</v>
+      </c>
+      <c r="K61" t="n">
+        <v>14482801</v>
+      </c>
+      <c r="L61" t="n">
+        <v>18792384</v>
+      </c>
+      <c r="M61" t="n">
+        <v>54360279</v>
+      </c>
+      <c r="N61" t="n">
+        <v>30666571</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1193858.4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>21625169</v>
+      </c>
+      <c r="R61" t="n">
+        <v>18.11367998080845</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-2068539</v>
+      </c>
+      <c r="T61" t="n">
+        <v>18252309</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.03446461103892123</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3457006539646347</v>
+      </c>
+      <c r="W61" t="n">
+        <v>18.05571964776711</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.04363001745200698</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.58167749625448</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="C62" t="n">
+        <v>109221209</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7415189</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3574638</v>
+      </c>
+      <c r="F62" t="n">
+        <v>14854561</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-12377170</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J62" t="n">
+        <v>94944762</v>
+      </c>
+      <c r="K62" t="n">
+        <v>44487184</v>
+      </c>
+      <c r="L62" t="n">
+        <v>103254578</v>
+      </c>
+      <c r="M62" t="n">
+        <v>174762768</v>
+      </c>
+      <c r="N62" t="n">
+        <v>63023450</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3279484.403669725</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>79818006</v>
+      </c>
+      <c r="R62" t="n">
+        <v>24.33858380624836</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-31921312</v>
+      </c>
+      <c r="T62" t="n">
+        <v>50457578</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.03272842365258931</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.5908270919581681</v>
+      </c>
+      <c r="W62" t="n">
+        <v>12.80409197931435</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.02408839779005525</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.859187878810892</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>110</v>
+      </c>
+      <c r="C63" t="n">
+        <v>215483158</v>
+      </c>
+      <c r="D63" t="n">
+        <v>43643659</v>
+      </c>
+      <c r="E63" t="n">
+        <v>36456171</v>
+      </c>
+      <c r="F63" t="n">
+        <v>66366350</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-32613754</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="J63" t="n">
+        <v>80696384</v>
+      </c>
+      <c r="K63" t="n">
+        <v>61387021</v>
+      </c>
+      <c r="L63" t="n">
+        <v>288914228</v>
+      </c>
+      <c r="M63" t="n">
+        <v>467268704</v>
+      </c>
+      <c r="N63" t="n">
+        <v>91688336</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="P63" t="n">
+        <v>7959862.663755459</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>386572320</v>
+      </c>
+      <c r="R63" t="n">
+        <v>48.56519971886241</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10991952</v>
+      </c>
+      <c r="T63" t="n">
+        <v>19309363</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.1691833892651601</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.6183042551893225</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.84898301033834</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.04163636363636364</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.264996347935881</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>15608222</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-200028</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-88009</v>
+      </c>
+      <c r="F64" t="n">
+        <v>354211</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-2182360</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4535324</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4173154</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1859589</v>
+      </c>
+      <c r="M64" t="n">
+        <v>14929075</v>
+      </c>
+      <c r="N64" t="n">
+        <v>12517041</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="P64" t="n">
+        <v>517699.9999999999</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>10393751</v>
+      </c>
+      <c r="R64" t="n">
+        <v>20.07678385165154</v>
+      </c>
+      <c r="S64" t="n">
+        <v>7981717</v>
+      </c>
+      <c r="T64" t="n">
+        <v>362170</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.00563863071655439</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.1245615686169438</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-22.67344571759953</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.007762557077625572</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.090812162038517</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="C65" t="n">
+        <v>148334</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-14936</v>
+      </c>
+      <c r="E65" t="n">
+        <v>50554</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-808808</v>
+      </c>
+      <c r="G65" t="n">
+        <v>42439</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J65" t="n">
+        <v>11827468</v>
+      </c>
+      <c r="K65" t="n">
+        <v>8708918</v>
+      </c>
+      <c r="L65" t="n">
+        <v>582</v>
+      </c>
+      <c r="M65" t="n">
+        <v>19500273</v>
+      </c>
+      <c r="N65" t="n">
+        <v>14062154</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>505540</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>7672805</v>
+      </c>
+      <c r="R65" t="n">
+        <v>15.17744392135143</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2234686</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3118550</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.34081195140696</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.984573600584977e-05</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-791.8765399035887</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.008733624454148473</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.7544089808094954</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>122</v>
+      </c>
+      <c r="C66" t="n">
+        <v>767550218</v>
+      </c>
+      <c r="D66" t="n">
+        <v>66469324</v>
+      </c>
+      <c r="E66" t="n">
+        <v>60070831</v>
+      </c>
+      <c r="F66" t="n">
+        <v>76949885</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4023068</v>
+      </c>
+      <c r="H66" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="I66" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="J66" t="n">
+        <v>65113275</v>
+      </c>
+      <c r="K66" t="n">
+        <v>50431424</v>
+      </c>
+      <c r="L66" t="n">
+        <v>107366691</v>
+      </c>
+      <c r="M66" t="n">
+        <v>405769455</v>
+      </c>
+      <c r="N66" t="n">
+        <v>232198754</v>
+      </c>
+      <c r="O66" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="P66" t="n">
+        <v>9519941.521394612</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>340656180</v>
+      </c>
+      <c r="R66" t="n">
+        <v>35.78343199214274</v>
+      </c>
+      <c r="S66" t="n">
+        <v>167085479</v>
+      </c>
+      <c r="T66" t="n">
+        <v>14681851</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.07826306291271225</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.2646002297043281</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.9795988748132898</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.05172131147540984</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>3.409399076835015</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7580236</v>
+      </c>
+      <c r="D67" t="n">
+        <v>336442</v>
+      </c>
+      <c r="E67" t="n">
+        <v>366947</v>
+      </c>
+      <c r="F67" t="n">
+        <v>152926</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-241757</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5065145</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2867910</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3948268</v>
+      </c>
+      <c r="M67" t="n">
+        <v>10766302</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5175775</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P67" t="n">
+        <v>295925</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5701157</v>
+      </c>
+      <c r="R67" t="n">
+        <v>19.26554701360142</v>
+      </c>
+      <c r="S67" t="n">
+        <v>110630</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2197235</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.04840838728503968</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.3667246190939099</v>
+      </c>
+      <c r="W67" t="n">
+        <v>15.05503177367867</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.06004842615012107</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.07186159756695</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6428894</v>
+      </c>
+      <c r="D68" t="n">
+        <v>448688</v>
+      </c>
+      <c r="E68" t="n">
+        <v>124088</v>
+      </c>
+      <c r="F68" t="n">
+        <v>796978</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-498337</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7172961</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2103619</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1814951</v>
+      </c>
+      <c r="M68" t="n">
+        <v>14853683</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3559954</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P68" t="n">
+        <v>295447.6190476191</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>7680722</v>
+      </c>
+      <c r="R68" t="n">
+        <v>25.9968992972729</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-3613007</v>
+      </c>
+      <c r="T68" t="n">
+        <v>5069342</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.01930160926591728</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.1221886181359869</v>
+      </c>
+      <c r="W68" t="n">
+        <v>15.98652292907321</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.004866743916570104</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>3.319626660593824</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>23006584</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1849634</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1931948</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4702741</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-3468976</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="J69" t="n">
+        <v>15384906</v>
+      </c>
+      <c r="K69" t="n">
+        <v>7471408</v>
+      </c>
+      <c r="L69" t="n">
+        <v>20448987</v>
+      </c>
+      <c r="M69" t="n">
+        <v>37258233</v>
+      </c>
+      <c r="N69" t="n">
+        <v>9020908</v>
+      </c>
+      <c r="O69" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="P69" t="n">
+        <v>592622.0858895706</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>21873327</v>
+      </c>
+      <c r="R69" t="n">
+        <v>36.90940233381022</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-6363998</v>
+      </c>
+      <c r="T69" t="n">
+        <v>7913498</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.08397370074583867</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.5488447882109707</v>
+      </c>
+      <c r="W69" t="n">
+        <v>8.317810983145854</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.06481113320079523</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.362796383021449</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>251</v>
+      </c>
+      <c r="C70" t="n">
+        <v>31257730</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1336754</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5890046</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1486211</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4899913</v>
+      </c>
+      <c r="H70" t="n">
+        <v>28.28</v>
+      </c>
+      <c r="I70" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5642713</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3323171</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1793200</v>
+      </c>
+      <c r="M70" t="n">
+        <v>26099747</v>
+      </c>
+      <c r="N70" t="n">
+        <v>8364080</v>
+      </c>
+      <c r="O70" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="P70" t="n">
+        <v>300053.2857870606</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>20457034</v>
+      </c>
+      <c r="R70" t="n">
+        <v>68.17800360472566</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2721367</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2319542</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.1884348607528442</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.06870564684017819</v>
+      </c>
+      <c r="W70" t="n">
+        <v>4.221205247936419</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.07820717131474103</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3.681539304893966</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4068623</v>
+      </c>
+      <c r="D71" t="n">
+        <v>518354</v>
+      </c>
+      <c r="E71" t="n">
+        <v>351736</v>
+      </c>
+      <c r="F71" t="n">
+        <v>760488</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1489109</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6405477</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2149825</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8946803</v>
+      </c>
+      <c r="M71" t="n">
+        <v>12206026</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2089898</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P71" t="n">
+        <v>202147.1264367816</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5800549</v>
+      </c>
+      <c r="R71" t="n">
+        <v>28.6946893692997</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-4315579</v>
+      </c>
+      <c r="T71" t="n">
+        <v>4255652</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.08645087047878361</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.7329824629244605</v>
+      </c>
+      <c r="W71" t="n">
+        <v>12.3573407362536</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.05948717948717949</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.019352383416787</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>169236653</v>
+      </c>
+      <c r="D72" t="n">
+        <v>926217</v>
+      </c>
+      <c r="E72" t="n">
+        <v>78501</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3045171</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-24907709</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J72" t="n">
+        <v>158044119</v>
+      </c>
+      <c r="K72" t="n">
+        <v>50061985</v>
+      </c>
+      <c r="L72" t="n">
+        <v>117219185</v>
+      </c>
+      <c r="M72" t="n">
+        <v>229011955</v>
+      </c>
+      <c r="N72" t="n">
+        <v>67898508</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1121442.857142857</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>70967836</v>
+      </c>
+      <c r="R72" t="n">
+        <v>63.28261448898741</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-90145611</v>
+      </c>
+      <c r="T72" t="n">
+        <v>107982134</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.0004638534183254026</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.5118474491866593</v>
+      </c>
+      <c r="W72" t="n">
+        <v>170.634008013241</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.004697986577181209</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.2354517132441317</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4024044</v>
+      </c>
+      <c r="D73" t="n">
+        <v>301837</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-274551</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1095722</v>
+      </c>
+      <c r="G73" t="n">
+        <v>465664</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-5.05</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>20763745</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5989501</v>
+      </c>
+      <c r="L73" t="n">
+        <v>24637123</v>
+      </c>
+      <c r="M73" t="n">
+        <v>26187533</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1184145</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="P73" t="n">
+        <v>508427.7777777778</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5423788</v>
+      </c>
+      <c r="R73" t="n">
+        <v>10.66776489613952</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-19579600</v>
+      </c>
+      <c r="T73" t="n">
+        <v>14774244</v>
+      </c>
+      <c r="U73" t="n">
+        <v>-0.06822763369386617</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.9407958741283495</v>
+      </c>
+      <c r="W73" t="n">
+        <v>68.79125156955575</v>
+      </c>
+      <c r="X73" t="n">
+        <v>-0.07248322147651007</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0.6983655969673674</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="C74" t="n">
+        <v>228661933</v>
+      </c>
+      <c r="D74" t="n">
+        <v>14783942</v>
+      </c>
+      <c r="E74" t="n">
+        <v>18391602</v>
+      </c>
+      <c r="F74" t="n">
+        <v>18800673</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-23959705</v>
+      </c>
+      <c r="H74" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="J74" t="n">
+        <v>297859983</v>
+      </c>
+      <c r="K74" t="n">
+        <v>128880103</v>
+      </c>
+      <c r="L74" t="n">
+        <v>164557019</v>
+      </c>
+      <c r="M74" t="n">
+        <v>565589420</v>
+      </c>
+      <c r="N74" t="n">
+        <v>129188871</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="P74" t="n">
+        <v>7631370.124481327</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>267729437</v>
+      </c>
+      <c r="R74" t="n">
+        <v>35.08274826575739</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-168671112</v>
+      </c>
+      <c r="T74" t="n">
+        <v>168979880</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.08043141137969825</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.2909478380978202</v>
+      </c>
+      <c r="W74" t="n">
+        <v>20.14753460207027</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.08324697754749569</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0.8251919085899186</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C75" t="n">
+        <v>974924</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6376</v>
+      </c>
+      <c r="E75" t="n">
+        <v>38482</v>
+      </c>
+      <c r="F75" t="n">
+        <v>62241</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-116844</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1426279</v>
+      </c>
+      <c r="K75" t="n">
+        <v>720407</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1658178</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4502435</v>
+      </c>
+      <c r="N75" t="n">
+        <v>940007</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P75" t="n">
+        <v>226364.7058823529</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3076156</v>
+      </c>
+      <c r="R75" t="n">
+        <v>13.58937996985604</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-486272</v>
+      </c>
+      <c r="T75" t="n">
+        <v>705872</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.03947179472451186</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.3682847170475532</v>
+      </c>
+      <c r="W75" t="n">
+        <v>223.6949498117942</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.02146464646464647</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.5828080469872903</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2293113</v>
+      </c>
+      <c r="D76" t="n">
+        <v>348253</v>
+      </c>
+      <c r="E76" t="n">
+        <v>254012</v>
+      </c>
+      <c r="F76" t="n">
+        <v>364699</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-335778</v>
+      </c>
+      <c r="H76" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="I76" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="J76" t="n">
+        <v>592163</v>
+      </c>
+      <c r="K76" t="n">
+        <v>429693</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1032041</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2291903</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1107492</v>
+      </c>
+      <c r="O76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P76" t="n">
+        <v>72574.85714285714</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1699740</v>
+      </c>
+      <c r="R76" t="n">
+        <v>23.42050769254996</v>
+      </c>
+      <c r="S76" t="n">
+        <v>515329</v>
+      </c>
+      <c r="T76" t="n">
+        <v>162470</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.1107716889660475</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.4502987255568844</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.700381619110245</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.08526187576126676</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.752737410259384</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="C77" t="n">
+        <v>151252571</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5797232</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2643052</v>
+      </c>
+      <c r="F77" t="n">
+        <v>50934976</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-15499603</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J77" t="n">
+        <v>158068415</v>
+      </c>
+      <c r="K77" t="n">
+        <v>49899337</v>
+      </c>
+      <c r="L77" t="n">
+        <v>172846595</v>
+      </c>
+      <c r="M77" t="n">
+        <v>364604906</v>
+      </c>
+      <c r="N77" t="n">
+        <v>141193432</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4556986.206896552</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>206536491</v>
+      </c>
+      <c r="R77" t="n">
+        <v>45.32304501765383</v>
+      </c>
+      <c r="S77" t="n">
+        <v>-16874983</v>
+      </c>
+      <c r="T77" t="n">
+        <v>108169078</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.01747442693056768</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.4740654669084458</v>
+      </c>
+      <c r="W77" t="n">
+        <v>27.26618755295631</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.03525835866261398</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.3629500178902927</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>10416495</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1099094</v>
+      </c>
+      <c r="E78" t="n">
+        <v>888569</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1635268</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1015015</v>
+      </c>
+      <c r="H78" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="I78" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5357620</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3582590</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4762760</v>
+      </c>
+      <c r="M78" t="n">
+        <v>11381615</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6226621</v>
+      </c>
+      <c r="O78" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="P78" t="n">
+        <v>195289.8901098901</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>6023995</v>
+      </c>
+      <c r="R78" t="n">
+        <v>30.84642526354172</v>
+      </c>
+      <c r="S78" t="n">
+        <v>869001</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1775030</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.08530402981041127</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.4184608247599308</v>
+      </c>
+      <c r="W78" t="n">
+        <v>4.874578516487216</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.05673316708229426</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2.599977122625963</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2885982</v>
+      </c>
+      <c r="D79" t="n">
+        <v>259536</v>
+      </c>
+      <c r="E79" t="n">
+        <v>145820</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-159439</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-412757</v>
+      </c>
+      <c r="H79" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1290507</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1238297</v>
+      </c>
+      <c r="L79" t="n">
+        <v>966563</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3864318</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1734383</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P79" t="n">
+        <v>142960.7843137255</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2573811</v>
+      </c>
+      <c r="R79" t="n">
+        <v>18.00361555342203</v>
+      </c>
+      <c r="S79" t="n">
+        <v>443876</v>
+      </c>
+      <c r="T79" t="n">
+        <v>52210</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.05052699566386762</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.2501251191025169</v>
+      </c>
+      <c r="W79" t="n">
+        <v>4.972362215646385</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.0396116504854369</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.430268266037573</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>20815369</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2719681</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1793890</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8427830</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-8803160</v>
+      </c>
+      <c r="H80" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J80" t="n">
+        <v>22635907</v>
+      </c>
+      <c r="K80" t="n">
+        <v>5401904</v>
+      </c>
+      <c r="L80" t="n">
+        <v>31907296</v>
+      </c>
+      <c r="M80" t="n">
+        <v>47155759</v>
+      </c>
+      <c r="N80" t="n">
+        <v>12625373</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1220333.333333333</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>24519852</v>
+      </c>
+      <c r="R80" t="n">
+        <v>20.09274952198853</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-10010534</v>
+      </c>
+      <c r="T80" t="n">
+        <v>17234003</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.08618103287047181</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.6766362513643349</v>
+      </c>
+      <c r="W80" t="n">
+        <v>8.323000748984899</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.0519434628975265</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.408468262097721</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>383194939</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5412248</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6912660</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-631184</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1202346</v>
+      </c>
+      <c r="H81" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J81" t="n">
+        <v>98158469</v>
+      </c>
+      <c r="K81" t="n">
+        <v>97360284</v>
+      </c>
+      <c r="L81" t="n">
+        <v>6919339</v>
+      </c>
+      <c r="M81" t="n">
+        <v>147518369</v>
+      </c>
+      <c r="N81" t="n">
+        <v>117682601</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1745621.212121212</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>49359900</v>
+      </c>
+      <c r="R81" t="n">
+        <v>28.27640937063301</v>
+      </c>
+      <c r="S81" t="n">
+        <v>19524132</v>
+      </c>
+      <c r="T81" t="n">
+        <v>798185</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.01803953887814787</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.04690493154788065</v>
+      </c>
+      <c r="W81" t="n">
+        <v>18.13635831174033</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.0840764331210191</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.665699466386867</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="C82" t="n">
+        <v>20570152</v>
+      </c>
+      <c r="D82" t="n">
+        <v>298719</v>
+      </c>
+      <c r="E82" t="n">
+        <v>222651</v>
+      </c>
+      <c r="F82" t="n">
+        <v>26489</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-443696</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4540810</v>
+      </c>
+      <c r="K82" t="n">
+        <v>4099620</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3752857</v>
+      </c>
+      <c r="M82" t="n">
+        <v>9261481</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4086130</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P82" t="n">
+        <v>166157.4626865672</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4720671</v>
+      </c>
+      <c r="R82" t="n">
+        <v>28.4108274384575</v>
+      </c>
+      <c r="S82" t="n">
+        <v>-454680</v>
+      </c>
+      <c r="T82" t="n">
+        <v>441190</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.01082398418835213</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.4052113263526643</v>
+      </c>
+      <c r="W82" t="n">
+        <v>15.20094135291026</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.05370741482965932</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.8781863201290347</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>52935016</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1747290</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1489361</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-1910135</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-470966</v>
+      </c>
+      <c r="H83" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="I83" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="J83" t="n">
+        <v>19426777</v>
+      </c>
+      <c r="K83" t="n">
+        <v>15396929</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2000855</v>
+      </c>
+      <c r="M83" t="n">
+        <v>31835712</v>
+      </c>
+      <c r="N83" t="n">
+        <v>24210165</v>
+      </c>
+      <c r="O83" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="P83" t="n">
+        <v>255903.9518900343</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>12408935</v>
+      </c>
+      <c r="R83" t="n">
+        <v>48.49059542985214</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4783388</v>
+      </c>
+      <c r="T83" t="n">
+        <v>4029848</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.0281356484335435</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.06284938750545299</v>
+      </c>
+      <c r="W83" t="n">
+        <v>11.11823280623136</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.1031914893617021</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.163112135457067</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>31795068</v>
+      </c>
+      <c r="D84" t="n">
+        <v>477509</v>
+      </c>
+      <c r="E84" t="n">
+        <v>216276</v>
+      </c>
+      <c r="F84" t="n">
+        <v>309921</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-49199</v>
+      </c>
+      <c r="H84" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="J84" t="n">
+        <v>8736103</v>
+      </c>
+      <c r="K84" t="n">
+        <v>8327946</v>
+      </c>
+      <c r="L84" t="n">
+        <v>304997</v>
+      </c>
+      <c r="M84" t="n">
+        <v>11471563</v>
+      </c>
+      <c r="N84" t="n">
+        <v>10973446</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P84" t="n">
+        <v>173020.8</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2735460</v>
+      </c>
+      <c r="R84" t="n">
+        <v>15.81000665815902</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2237343</v>
+      </c>
+      <c r="T84" t="n">
+        <v>408157</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.006802187056181166</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.02658722268273295</v>
+      </c>
+      <c r="W84" t="n">
+        <v>18.29515883470259</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.06218905472636815</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.271346713167072</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2977046</v>
+      </c>
+      <c r="D85" t="n">
+        <v>320103</v>
+      </c>
+      <c r="E85" t="n">
+        <v>403211</v>
+      </c>
+      <c r="F85" t="n">
+        <v>585777</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-60712</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1487590</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1287928</v>
+      </c>
+      <c r="L85" t="n">
+        <v>5390881</v>
+      </c>
+      <c r="M85" t="n">
+        <v>11481451</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3682373</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P85" t="n">
+        <v>366555.4545454545</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>9993861</v>
+      </c>
+      <c r="R85" t="n">
+        <v>27.2642539514051</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2194783</v>
+      </c>
+      <c r="T85" t="n">
+        <v>199662</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.1354399629700045</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.4695295916866257</v>
+      </c>
+      <c r="W85" t="n">
+        <v>4.647222925120976</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.04867256637168142</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0.8289242038414656</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2024588</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-138795</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-1314168</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-196405</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-149959</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-46.23</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-9.51</v>
+      </c>
+      <c r="J86" t="n">
+        <v>6253431</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2936538</v>
+      </c>
+      <c r="L86" t="n">
+        <v>6517323</v>
+      </c>
+      <c r="M86" t="n">
+        <v>8417910</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1293263</v>
+      </c>
+      <c r="O86" t="n">
+        <v>-3.87</v>
+      </c>
+      <c r="P86" t="n">
+        <v>339578.2945736434</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2164479</v>
+      </c>
+      <c r="R86" t="n">
+        <v>6.374020467702759</v>
+      </c>
+      <c r="S86" t="n">
+        <v>-4960168</v>
+      </c>
+      <c r="T86" t="n">
+        <v>3316893</v>
+      </c>
+      <c r="U86" t="n">
+        <v>-0.6491039164511496</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.7742210358628211</v>
+      </c>
+      <c r="W86" t="n">
+        <v>-45.05516048849022</v>
+      </c>
+      <c r="X86" t="n">
+        <v>-0.5767511177347243</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.052710770854856</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>151</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6675944</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1133315</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1398003</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1254740</v>
+      </c>
+      <c r="G87" t="n">
+        <v>154251</v>
+      </c>
+      <c r="H87" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="I87" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3586843</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3202977</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2824132</v>
+      </c>
+      <c r="M87" t="n">
+        <v>7900517</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2561047</v>
+      </c>
+      <c r="O87" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="P87" t="n">
+        <v>129444.7222222222</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4313674</v>
+      </c>
+      <c r="R87" t="n">
+        <v>33.32444865998141</v>
+      </c>
+      <c r="S87" t="n">
+        <v>-1025796</v>
+      </c>
+      <c r="T87" t="n">
+        <v>383866</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.2094090363849667</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.3574616699135006</v>
+      </c>
+      <c r="W87" t="n">
+        <v>3.164912667704919</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.07152317880794702</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>4.531207749022192</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1020869</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-228006</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-217632</v>
+      </c>
+      <c r="F88" t="n">
+        <v>186838</v>
+      </c>
+      <c r="G88" t="n">
+        <v>209769</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-11.42</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-7.11</v>
+      </c>
+      <c r="J88" t="n">
+        <v>686178</v>
+      </c>
+      <c r="K88" t="n">
+        <v>609423</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1064277</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2531231</v>
+      </c>
+      <c r="N88" t="n">
+        <v>917546</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="P88" t="n">
+        <v>197847.2727272727</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1845053</v>
+      </c>
+      <c r="R88" t="n">
+        <v>9.32564282826055</v>
+      </c>
+      <c r="S88" t="n">
+        <v>231368</v>
+      </c>
+      <c r="T88" t="n">
+        <v>76755</v>
+      </c>
+      <c r="U88" t="n">
+        <v>-0.2131830822563914</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.4204582671435361</v>
+      </c>
+      <c r="W88" t="n">
+        <v>-3.009473434909608</v>
+      </c>
+      <c r="X88" t="n">
+        <v>-0.107843137254902</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.093758380826015</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>64497644</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7327919</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5869099</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8496331</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1944372</v>
+      </c>
+      <c r="H89" t="n">
+        <v>35.12</v>
+      </c>
+      <c r="I89" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>16195624</v>
+      </c>
+      <c r="K89" t="n">
+        <v>10220422</v>
+      </c>
+      <c r="L89" t="n">
+        <v>14413394</v>
+      </c>
+      <c r="M89" t="n">
+        <v>34191007</v>
+      </c>
+      <c r="N89" t="n">
+        <v>17263704</v>
+      </c>
+      <c r="O89" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="P89" t="n">
+        <v>744809.5177664974</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>17995383</v>
+      </c>
+      <c r="R89" t="n">
+        <v>24.16105402890631</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1068080</v>
+      </c>
+      <c r="T89" t="n">
+        <v>5975202</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.09099710680904871</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.4215551182800787</v>
+      </c>
+      <c r="W89" t="n">
+        <v>2.21012595799708</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.05902621722846442</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>5.52542119397111</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>136</v>
+      </c>
+      <c r="C90" t="n">
+        <v>60239417</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3903549</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2968463</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2693864</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-5322913</v>
+      </c>
+      <c r="H90" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="J90" t="n">
+        <v>30366300</v>
+      </c>
+      <c r="K90" t="n">
+        <v>27189407</v>
+      </c>
+      <c r="L90" t="n">
+        <v>9183491</v>
+      </c>
+      <c r="M90" t="n">
+        <v>52635235</v>
+      </c>
+      <c r="N90" t="n">
+        <v>39132740</v>
+      </c>
+      <c r="O90" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="P90" t="n">
+        <v>388542.277486911</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>22268935</v>
+      </c>
+      <c r="R90" t="n">
+        <v>57.31405895913138</v>
+      </c>
+      <c r="S90" t="n">
+        <v>8766440</v>
+      </c>
+      <c r="T90" t="n">
+        <v>3176893</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.04927775114423833</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.1744742091490614</v>
+      </c>
+      <c r="W90" t="n">
+        <v>7.779151741146326</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.05617647058823529</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.372890743909392</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="C91" t="n">
+        <v>50104927</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3520486</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3475969</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4328692</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1004955</v>
+      </c>
+      <c r="H91" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="J91" t="n">
+        <v>33490371</v>
+      </c>
+      <c r="K91" t="n">
+        <v>18141380</v>
+      </c>
+      <c r="L91" t="n">
+        <v>17363543</v>
+      </c>
+      <c r="M91" t="n">
+        <v>91981286</v>
+      </c>
+      <c r="N91" t="n">
+        <v>43760371</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2186144.025157233</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>58490915</v>
+      </c>
+      <c r="R91" t="n">
+        <v>26.75528891368134</v>
+      </c>
+      <c r="S91" t="n">
+        <v>10270000</v>
+      </c>
+      <c r="T91" t="n">
+        <v>15348991</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.0693737963134843</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.1887725618448083</v>
+      </c>
+      <c r="W91" t="n">
+        <v>9.512996501051274</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.0658385093167702</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.9026252744985638</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4276436</v>
+      </c>
+      <c r="D92" t="n">
+        <v>169627</v>
+      </c>
+      <c r="E92" t="n">
+        <v>210462</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-90360</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-114267</v>
+      </c>
+      <c r="H92" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2810755</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2520053</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1005520</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5702986</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3737583</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P92" t="n">
+        <v>193084.4036697248</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2892231</v>
+      </c>
+      <c r="R92" t="n">
+        <v>14.97910211819711</v>
+      </c>
+      <c r="S92" t="n">
+        <v>926828</v>
+      </c>
+      <c r="T92" t="n">
+        <v>290702</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.04921434577765223</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.1763146534113884</v>
+      </c>
+      <c r="W92" t="n">
+        <v>16.57020993120199</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.06855345911949685</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.061478843961158</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>24983824</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1635944</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1470540</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3420161</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-598891</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J93" t="n">
+        <v>16432512</v>
+      </c>
+      <c r="K93" t="n">
+        <v>12845366</v>
+      </c>
+      <c r="L93" t="n">
+        <v>6376135</v>
+      </c>
+      <c r="M93" t="n">
+        <v>40013351</v>
+      </c>
+      <c r="N93" t="n">
+        <v>16465076</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="P93" t="n">
+        <v>540639.7058823529</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>23580839</v>
+      </c>
+      <c r="R93" t="n">
+        <v>43.61655043725435</v>
+      </c>
+      <c r="S93" t="n">
+        <v>32564</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3587146</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.05885968457030437</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.1593501878910367</v>
+      </c>
+      <c r="W93" t="n">
+        <v>10.04466656560371</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.06618004866180049</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.9423028549478119</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C94" t="n">
+        <v>967706411</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9261746</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9589301</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-15262849</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2438759</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="J94" t="n">
+        <v>286632975</v>
+      </c>
+      <c r="K94" t="n">
+        <v>274207898</v>
+      </c>
+      <c r="L94" t="n">
+        <v>20418228</v>
+      </c>
+      <c r="M94" t="n">
+        <v>399794823</v>
+      </c>
+      <c r="N94" t="n">
+        <v>362745250</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4677707.80487805</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>113161848</v>
+      </c>
+      <c r="R94" t="n">
+        <v>24.19173080498776</v>
+      </c>
+      <c r="S94" t="n">
+        <v>76112275</v>
+      </c>
+      <c r="T94" t="n">
+        <v>12425077</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.009909308123825171</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.05107176687978273</v>
+      </c>
+      <c r="W94" t="n">
+        <v>30.94804964420316</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.1035353535353535</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0.8184614883329352</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>354187665</v>
+      </c>
+      <c r="D95" t="n">
+        <v>16975634</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5272496</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5169922</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-3587643</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J95" t="n">
+        <v>174473952</v>
+      </c>
+      <c r="K95" t="n">
+        <v>162689625</v>
+      </c>
+      <c r="L95" t="n">
+        <v>16733866</v>
+      </c>
+      <c r="M95" t="n">
+        <v>342165876</v>
+      </c>
+      <c r="N95" t="n">
+        <v>254924246</v>
+      </c>
+      <c r="O95" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="P95" t="n">
+        <v>924999.298245614</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>167691924</v>
+      </c>
+      <c r="R95" t="n">
+        <v>181.2887040217764</v>
+      </c>
+      <c r="S95" t="n">
+        <v>80450294</v>
+      </c>
+      <c r="T95" t="n">
+        <v>11784327</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.01488616493744919</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.04890571261992239</v>
+      </c>
+      <c r="W95" t="n">
+        <v>10.27790490770477</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.02054054054054054</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.530707616325983</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="C96" t="n">
+        <v>155783161</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4576159</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4450654</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8958266</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-4683709</v>
+      </c>
+      <c r="H96" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I96" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="J96" t="n">
+        <v>79947637</v>
+      </c>
+      <c r="K96" t="n">
+        <v>61335721</v>
+      </c>
+      <c r="L96" t="n">
+        <v>21013038</v>
+      </c>
+      <c r="M96" t="n">
+        <v>119807283</v>
+      </c>
+      <c r="N96" t="n">
+        <v>66193691</v>
+      </c>
+      <c r="O96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2171050.731707317</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>39859646</v>
+      </c>
+      <c r="R96" t="n">
+        <v>18.35961058756758</v>
+      </c>
+      <c r="S96" t="n">
+        <v>-13753946</v>
+      </c>
+      <c r="T96" t="n">
+        <v>18611916</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.02856954481749154</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.1753903224731338</v>
+      </c>
+      <c r="W96" t="n">
+        <v>17.47046748157134</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.09601873536299764</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.162878694957583</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>48726518</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7467399</v>
+      </c>
+      <c r="E97" t="n">
+        <v>6316748</v>
+      </c>
+      <c r="F97" t="n">
+        <v>7425746</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1769158</v>
+      </c>
+      <c r="H97" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="I97" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="J97" t="n">
+        <v>14396486</v>
+      </c>
+      <c r="K97" t="n">
+        <v>12146590</v>
+      </c>
+      <c r="L97" t="n">
+        <v>9782781</v>
+      </c>
+      <c r="M97" t="n">
+        <v>43937072</v>
+      </c>
+      <c r="N97" t="n">
+        <v>25366573</v>
+      </c>
+      <c r="O97" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="P97" t="n">
+        <v>700304.6563192905</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>29540586</v>
+      </c>
+      <c r="R97" t="n">
+        <v>42.18247834486986</v>
+      </c>
+      <c r="S97" t="n">
+        <v>10970087</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2249896</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.1296367616499911</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.2226543680471015</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.927911713302048</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.04410757946210269</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>4.847984471848152</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="C98" t="n">
+        <v>60923590</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2275588</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2496125</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-2334417</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1947350</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="J98" t="n">
+        <v>11565929</v>
+      </c>
+      <c r="K98" t="n">
+        <v>10955638</v>
+      </c>
+      <c r="L98" t="n">
+        <v>4131468</v>
+      </c>
+      <c r="M98" t="n">
+        <v>35734595</v>
+      </c>
+      <c r="N98" t="n">
+        <v>28959419</v>
+      </c>
+      <c r="O98" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="P98" t="n">
+        <v>617852.7227722772</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>24168666</v>
+      </c>
+      <c r="R98" t="n">
+        <v>39.11719590965998</v>
+      </c>
+      <c r="S98" t="n">
+        <v>17393490</v>
+      </c>
+      <c r="T98" t="n">
+        <v>610291</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.04097140368779975</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.1156153581704228</v>
+      </c>
+      <c r="W98" t="n">
+        <v>5.082611175660972</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.05056320400500625</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>2.042579948330824</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C99" t="n">
+        <v>673521</v>
+      </c>
+      <c r="D99" t="n">
+        <v>42943</v>
+      </c>
+      <c r="E99" t="n">
+        <v>57174</v>
+      </c>
+      <c r="F99" t="n">
+        <v>67751</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-16378</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="J99" t="n">
+        <v>389606</v>
+      </c>
+      <c r="K99" t="n">
+        <v>253443</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8123</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1117235</v>
+      </c>
+      <c r="N99" t="n">
+        <v>998218</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P99" t="n">
+        <v>47251.23966942149</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>727629</v>
+      </c>
+      <c r="R99" t="n">
+        <v>15.39915153741211</v>
+      </c>
+      <c r="S99" t="n">
+        <v>608612</v>
+      </c>
+      <c r="T99" t="n">
+        <v>136163</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.08488822174809695</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.007270627934140982</v>
+      </c>
+      <c r="W99" t="n">
+        <v>9.072631162238316</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.08120805369127516</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0.9675857766449388</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="C100" t="n">
+        <v>82741004</v>
+      </c>
+      <c r="D100" t="n">
+        <v>18153110</v>
+      </c>
+      <c r="E100" t="n">
+        <v>14889197</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9264060</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-14459064</v>
+      </c>
+      <c r="H100" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="I100" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="J100" t="n">
+        <v>120139652</v>
+      </c>
+      <c r="K100" t="n">
+        <v>62804294</v>
+      </c>
+      <c r="L100" t="n">
+        <v>52549341</v>
+      </c>
+      <c r="M100" t="n">
+        <v>279187998</v>
+      </c>
+      <c r="N100" t="n">
+        <v>80358506</v>
+      </c>
+      <c r="O100" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4205987.853107344</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>159048346</v>
+      </c>
+      <c r="R100" t="n">
+        <v>37.81474211403073</v>
+      </c>
+      <c r="S100" t="n">
+        <v>-39781146</v>
+      </c>
+      <c r="T100" t="n">
+        <v>57335358</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.1799494359531823</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0.1882220631848222</v>
+      </c>
+      <c r="W100" t="n">
+        <v>6.61813055724336</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.1064661654135338</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0.8792867051620846</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="C101" t="n">
+        <v>124594602</v>
+      </c>
+      <c r="D101" t="n">
+        <v>28180901</v>
+      </c>
+      <c r="E101" t="n">
+        <v>22644071</v>
+      </c>
+      <c r="F101" t="n">
+        <v>22150720</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-35572299</v>
+      </c>
+      <c r="H101" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="J101" t="n">
+        <v>146705662</v>
+      </c>
+      <c r="K101" t="n">
+        <v>64503844</v>
+      </c>
+      <c r="L101" t="n">
+        <v>91093825</v>
+      </c>
+      <c r="M101" t="n">
+        <v>344085118</v>
+      </c>
+      <c r="N101" t="n">
+        <v>110380695</v>
+      </c>
+      <c r="O101" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5181709.610983982</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>197379456</v>
+      </c>
+      <c r="R101" t="n">
+        <v>38.09157031524941</v>
+      </c>
+      <c r="S101" t="n">
+        <v>-36324967</v>
+      </c>
+      <c r="T101" t="n">
+        <v>82201818</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.1817419907164196</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.2647421240694287</v>
+      </c>
+      <c r="W101" t="n">
+        <v>5.20585420600995</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.09988571428571429</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.148548081318804</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>14</v>
+      </c>
+      <c r="C102" t="n">
+        <v>101279573</v>
+      </c>
+      <c r="D102" t="n">
+        <v>24199572</v>
+      </c>
+      <c r="E102" t="n">
+        <v>20498238</v>
+      </c>
+      <c r="F102" t="n">
+        <v>9808722</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-8617963</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J102" t="n">
         <v>2050290165</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E2" t="n">
-        <v>101279573</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24199572</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20498238</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9808722</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-8617963</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="L102" t="n">
         <v>21871922</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M102" t="n">
         <v>2287133925</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N102" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="O102" t="n">
         <v>1.59</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P102" t="n">
         <v>12891973.58490566</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q102" t="n">
         <v>236843760</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R102" t="n">
         <v>18.37141213796034</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S102" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T102" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="U102" t="n">
         <v>0.2023926186971582</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V102" t="n">
         <v>0.009563026354042648</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W102" t="n">
         <v>84.72423251948423</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X102" t="n">
         <v>0.1135714285714286</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y102" t="n">
         <v>0.7620535588046704</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="C103" t="n">
+        <v>410933257</v>
+      </c>
+      <c r="D103" t="n">
+        <v>57615327</v>
+      </c>
+      <c r="E103" t="n">
+        <v>47721022</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-3166904</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-4220371</v>
+      </c>
+      <c r="H103" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J103" t="n">
         <v>7246233832</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>410933257</v>
-      </c>
-      <c r="F3" t="n">
-        <v>57615327</v>
-      </c>
-      <c r="G3" t="n">
-        <v>47721022</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-3166904</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-4220371</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="L103" t="n">
         <v>58481088</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M103" t="n">
         <v>7715059808</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N103" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O103" t="n">
         <v>4.52</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P103" t="n">
         <v>10557748.2300885</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q103" t="n">
         <v>468825976</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R103" t="n">
         <v>44.40586816267263</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S103" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T103" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="U103" t="n">
         <v>0.1161284008707039</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V103" t="n">
         <v>0.007580121146871607</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W103" t="n">
         <v>125.769204295239</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X103" t="n">
         <v>0.08725868725868725</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y103" t="n">
         <v>1.16651249357946</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>12</v>
+      </c>
+      <c r="C104" t="n">
+        <v>252859691</v>
+      </c>
+      <c r="D104" t="n">
+        <v>11034716</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10478595</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-52148191</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-11386469</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J104" t="n">
         <v>3503851532</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>252859691</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11034716</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10478595</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-52148191</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-11386469</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="L104" t="n">
         <v>31854369</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M104" t="n">
         <v>3648467252</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N104" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O104" t="n">
         <v>0.89</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P104" t="n">
         <v>11773702.24719101</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q104" t="n">
         <v>144615720</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R104" t="n">
         <v>12.28294354348078</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S104" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T104" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="U104" t="n">
         <v>0.04144035357537473</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V104" t="n">
         <v>0.008730890754888431</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W104" t="n">
         <v>317.5298333006486</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X104" t="n">
         <v>0.07416666666666667</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y104" t="n">
         <v>0.9769645164875032</v>
       </c>
     </row>
